--- a/medicine/Sexualité et sexologie/Basic_Instinct/Basic_Instinct.xlsx
+++ b/medicine/Sexualité et sexologie/Basic_Instinct/Basic_Instinct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basic Instinct (['beɪsɪk ˈɪnstɪŋkt][1]) est un thriller érotique franco-américano-britannique réalisé par Paul Verhoeven et sorti en 1992. Le film se focalise sur l'officier de police Nick Curran (Michael Douglas) qui enquête sur le meurtre sauvage d'une riche rock star. Durant son enquête, Curran se lance dans une relation intense et torride avec la suspecte principale, la belle et mystérieuse Catherine Tramell (Sharon Stone).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basic Instinct (['beɪsɪk ˈɪnstɪŋkt]) est un thriller érotique franco-américano-britannique réalisé par Paul Verhoeven et sorti en 1992. Le film se focalise sur l'officier de police Nick Curran (Michael Douglas) qui enquête sur le meurtre sauvage d'une riche rock star. Durant son enquête, Curran se lance dans une relation intense et torride avec la suspecte principale, la belle et mystérieuse Catherine Tramell (Sharon Stone).
 Avant même sa sortie, Basic Instinct suscita de nombreuses controverses dues à de nombreuses scènes de sexe explicites et l'esthétisation de la violence. Les activistes de la défense des droits LGBT critiquèrent violemment le film pour la manière dont sont décrites les relations homosexuelles et le portrait d'une femme bisexuelle associée à une meurtrière sociopathe. Malgré les critiques mitigées et les protestations du public, Basic Instinct est un des films les plus rentables des années 1990, engendrant plus de 352 millions de dollars de recettes dans le monde.
 Le succès de ce film a lancé une mode de film du genre thriller érotique au début des années 1990. Une suite, Basic Instinct 2 avec Sharon Stone, mais sans Paul Verhoeven à la réalisation, est sortie en 2006.
 </t>
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-Catherine Tramell (Sharon Stone), une romancière richissime vivant entourée d'anciens meurtriers, est soupçonnée du meurtre de son amant, la rock star Johnny Boz. Celui-ci a été assassiné à coups de pic à glace dans des circonstances similaires à celles décrites dans l'un des romans policiers qu'elle a écrits. Les romans de Catherine sont des polars qui mêlent sexe et crime et s'attardent sur l'instinct primaire (basic instinct) des gens. Nick Curran (Michael Douglas), un policier chargé de l'enquête et ayant un lourd passé judiciaire, doit faire face à cette « mante religieuse ». Celle-ci n'hésite pas à utiliser ses charmes pour arriver à ses fins.
-Synopsis détaillé
-Un homme et une femme blonde font l'amour sur un grand lit et sous un grand miroir. L'homme se laisse attacher les poignets aux montants du lit avec une écharpe blanche. Mais au moment de l'orgasme, la femme le tue à coups de pic à glace.
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Tramell (Sharon Stone), une romancière richissime vivant entourée d'anciens meurtriers, est soupçonnée du meurtre de son amant, la rock star Johnny Boz. Celui-ci a été assassiné à coups de pic à glace dans des circonstances similaires à celles décrites dans l'un des romans policiers qu'elle a écrits. Les romans de Catherine sont des polars qui mêlent sexe et crime et s'attardent sur l'instinct primaire (basic instinct) des gens. Nick Curran (Michael Douglas), un policier chargé de l'enquête et ayant un lourd passé judiciaire, doit faire face à cette « mante religieuse ». Celle-ci n'hésite pas à utiliser ses charmes pour arriver à ses fins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un homme et une femme blonde font l'amour sur un grand lit et sous un grand miroir. L'homme se laisse attacher les poignets aux montants du lit avec une écharpe blanche. Mais au moment de l'orgasme, la femme le tue à coups de pic à glace.
 Le lendemain matin, l'inspecteur de la police de San Francisco Nick Curran (Michael Douglas) vient enquêter avec son équipe, et notamment son collègue, Gus Moran. La victime est Johnny Boz, un ancien rocker tombé par la suite dans l'oubli. La veille au soir, il était dans une boîte de nuit qu'il a quittée avec une femme. Nick est énervé, car il y a sur la scène du crime des représentants de la mairie qui exigent une enquête exemplaire, vu que la victime sponsorisait des activités de la mairie.
 Nick et Gus se rendent au domicile de Catherine Tramell (Sharon Stone) qui a été vue la veille au soir dans une boîte de nuit avec la victime. Mais ils tombent sur Roxy, la petite amie de Catherine, qui leur donne l'adresse de sa luxueuse villa sur la côte californienne. Nick et Gus se rendent à cette villa et y trouvent Catherine, une belle femme blonde très sûre d'elle. Elle leur dit que sa relation avec Johnny Boz était uniquement d'ordre sexuel. Elle admet être sortie en boîte avec Johnny Boz la veille mais l'avoir laissé à minuit sans aller chez lui. Puis elle leur demande de partir ou de l'arrêter.
 Revenu à son bureau, Nick retrouve le docteur Beth Garner (Jeanne Tripplehorn), son ancienne petite amie, mais aussi psychologue dans la police. Nick lui confirme qu'il va beaucoup mieux car il a notamment cessé de boire et de fumer.
@@ -540,31 +592,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Basic_Instinct</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Basic Instinct
@@ -580,51 +634,53 @@
 Production : Alan Marshall
 Production déléguée : Mario Kassar
 Production associée : William S. Beasley et Louis D'Esposito
-Sociétés de production[2] : Carolco Pictures (États-Unis), Studiocanal (France)
-Sociétés de distribution[2] : TriStar Pictures (États-Unis), Guild Film Distribution (Royaume-Uni),  UGC (France)
-Budget : 49 millions de dollars[3]
+Sociétés de production : Carolco Pictures (États-Unis), Studiocanal (France)
+Sociétés de distribution : TriStar Pictures (États-Unis), Guild Film Distribution (Royaume-Uni),  UGC (France)
+Budget : 49 millions de dollars
 Pays de production :  États-Unis,  France,  Royaume-Uni
 Langue originale : anglais
-Format[4] : Couleur (Technicolor) - 35 mm - 2,39:1 (Cinémascope) – son Dolby SR, LC-Concept Digital Sound (France)
+Format : Couleur (Technicolor) - 35 mm - 2,39:1 (Cinémascope) – son Dolby SR, LC-Concept Digital Sound (France)
 Genre : thriller érotique, drame, policier
 Durée : 127 minutes - 128 minutes (version non censurée)
-Dates de sortie[5] :
+Dates de sortie :
 États-Unis : 20 mars 1992 (version censurée)
 Canada : 20 mars 1992 (version censurée)
 France : 7 mai 1992 (Festival de Cannes), 8 mai 1992 (sortie nationale version non censurée)
 Royaume-Uni : 8 mai 1992
-Classification[6] :
+Classification :
 États-Unis : R – Restricted (les enfants de moins de 17 ans doivent être accompagnés d'un adulte)
-France : interdit aux moins de 16 ans lors de sa sortie en salles[7], réévalué en interdit aux moins de 12 ans depuis 1996[8]
+France : interdit aux moins de 16 ans lors de sa sortie en salles, réévalué en interdit aux moins de 12 ans depuis 1996
 Royaume-Uni : interdit aux moins de 18 ans</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Basic_Instinct</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Michael Douglas (VF : Patrick Floersheim) : l'inspecteur Nick Curran
 Sharon Stone (VF : Micky Sébastian) : Catherine Tramell
@@ -648,47 +704,7 @@
 David Wells (VF : Jean-Pierre Leroux) : l'examinateur du détecteur de mensonges
 Bradford English (en) (VF : Christian Peythieu) : le policier aux archives du campus
 Adilah Barnes (VF : Émilie Benoît) : l'infirmière noire à l’accueil
-Source et légende : Version Française (VF) sur RS Doublage[9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Basic_Instinct</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développement
-Joe Eszterhas écrit le scénario, d'abord intitulé Love Hurts, en treize jours dans les années 1980[10]. Très prisé par les studios, le script devient si populaire qu'il provoque une guerre des enchères, avant d'être finalement acheté par Carolco Pictures pour trois millions de dollars, somme la plus élevée jamais payée pour un scénario à l'époque[11].
-Distribution des rôles
-Le rôle de Nick Curran avait été proposé à une longue liste d'acteurs tels que Harrison Ford, Tom Cruise, Brad Pitt, Kevin Costner, Richard Gere, Denzel Washington, Wesley Snipes, Ray Liotta, Mel Gibson, Sean Penn, Tom Hanks, Sylvester Stallone, Jack Nicholson, Bruce Willis, Don Johnson, Al Pacino, Patrick Swayze, Christopher Walken, Nicolas Cage, Dennis Quaid, Jeff Bridges, John Travolta, Chuck Norris, Charlie Sheen, Richard Dean Anderson, Michael J. Fox, John Heard ou encore Martin Sheen. Paul Verhoeven voulait à un moment donné Peter Weller, avec qui il avait travaillé sur Robocop avant que Michael Douglas ne soit officiellement choisi[réf. nécessaire].
-Le rôle de Catherine Tramell avait été proposé à Kim Basinger, Michelle Pfeiffer, Rosanna Arquette, Melanie Griffith, Bridget Fonda, Joan Allen, Jodie Foster, Helen Hunt, Marisa Tomei, Sarah Jessica Parker, Greta Scacchi, Meryl Streep, Julia Roberts, Meg Ryan, Kelly McGillis, Annette Bening, Isabella Rossellini, Kelly Lynch ou encore Lena Olin[réf. nécessaire]. Geena Davis et Ellen Barkin[11] refusèrent à cause du caractère sulfureux du personnage et également à cause des scènes dénudées[N 1]. Sharon Stone avait déjà tourné pour Paul Verhoeven dans Total Recall, où elle tenait un rôle secondaire à côté de la vedette Arnold Schwarzenegger.
-Tournage
-Le tournage du film s'est déroulé du 5 avril au 28 juin 1991[12], en Californie, notamment à San Francisco et à Carmel-by-the-Sea.
-Passionné de sport automobile, c'est Michael Douglas qui a assuré lui-même la poursuite en voiture[réf. nécessaire].
-Musique
-La musique du film est composée par Jerry Goldsmith, qui avait précédemment collaboré avec Paul Verhoeven sur Total Recall. Le compositeur s'inspire en partie d'Aquarium, 7e mouvement du Carnaval des Animaux de Camille Saint-Saëns. Le compositeur avoue par la suite que sa collaboration avec le réalisateur sur ce film est l'une des plus exigeantes de sa carrière, notamment pour adapter parfaitement le thème musical à l'ambiance équivoque du film, mais qu'elle s'avère finalement une de ses meilleures expériences. Sa musique lui vaut d'être nommé à l'Oscar de la meilleure musique en 1993.
-</t>
+Source et légende : Version Française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -713,28 +729,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sortie</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controverses
-En raison de son caractère sulfureux, le tournage et, plus tard, le lancement du film sont perturbés par des ligues féministes et LGBT[13],[14]. 
-Mais, sous la pression de ces ligues, le scénariste Joe Eszterhas avait voulu modifier certains éléments du script d'origine (ex : remplacer Nick Curran par une policière lesbienne). Il se heurte au refus du réalisateur Paul Verhoeven[15].
-Le film est par ailleurs l'objet d'un article universitaire estimant que Basic Instinct représente à lui tout seul un grand nombre de clichés biphobes : Catherine Tramell (Sharon Stone), femme bisexuelle, est une personne froide et sans émotion, incapable de s'attacher sentimentalement à ses conquêtes amoureuses, insatiable sexuellement dans ses aventures avec les deux sexes ; la bisexualité est plus largement représentée comme un état de « confusion » permanente entre hétérosexualité et homosexualité[16].
-Par ailleurs, la scène la plus mémorable du film est celle où Catherine Tramell habillée d'une robe blanche courte, interrogée au commissariat de police, décroise et recroise très lentement les jambes. On peut constater à cet instant que l'actrice ne porte pas de culotte. Sharon Stone a affirmé[17] que le réalisateur lui avait demandé d'enlever sa culotte pour éviter une tache claire sur la pellicule. Et que ce n'est qu'à la projection des rushes qu'elle s'est rendu compte qu'on voyait clairement qu'elle ne portait pas de culotte. Ce n'était pas le fait de ne pas porter de culotte qui la choquait mais le fait que le réalisateur ne lui ait pas dit la vérité et qu'il ait trouvé un prétexte. Elle s'était sentie trahie et dira plus tard regretter de ne pas avoir porté plainte, même si cela aboutit finalement en l'une des scènes les plus cultes du film, tournée à son insu. Ce plan fait d'ailleurs partie des 42 secondes censurées et supprimées à la sortie du film aux États-Unis[réf. nécessaire].
-Présentation au festival de Cannes
-Basic Instinct est le film d'ouverture du festival de Cannes 1992, qui marque les 45 ans de l'évènement[18]. La révélation du festival reste sans conteste Sharon Stone. Venue avec le réalisateur et Michael Douglas, c'est à cet instant qu'elle fut catapultée au rang de star du cinéma et de sex symbol international[réf. nécessaire].
-Sortie en salles
-Basic Instinct est amputée de certaines scènes pour sa sortie en salles États-Unis dues au référencement cinématographique de la MPAA (le film a dû être soumis à sept reprises à la Motion Picture Association of America, afin de lui éviter le classement NC-17[N 2]). Néanmoins, la version intégrale est visible en Europe, notamment lors de la sortie en salles en France du long-métrage. C'est la version européenne qui est sortie en DVD avec l’appellation version non censurée[19],[20] sur le territoire américain.
-Accueil critique
-Basic Instinct a essentiellement obtenu des critiques mitigées dans les pays anglophones, obtenant une moyenne de 34⁄100 sur le site Metacritic[21] et 54 % d'avis favorables sur le site Rotten Tomatoes avec une note moyenne de 5,9⁄10[22].
-Si Janet Maslin du New York Times fait l'éloge du film[23] et que Peter Travers (en) de Rolling Stone, salue également le film et notamment la performance de Sharon Stone[24], d'autres critiques cinématographiques de presse rejettent Basic Instinct, comme Roger Ebert, du Chicago Sun-Times, lui donnant deux étoiles sur quatre, qui indique que le film est bien conçu mais s'essouffle dans la dernière demi-heure[25]. D'autres critiques lui attribuent des commentaires négatifs, qualifiant le film de « pornographique, misogyne et homophobe »[26].
-Ce sont les critiques internationales qui accueillent favorablement le film, notamment en Australie avec le Sunday Times qui qualifie le film d'une des « plus belles productions » des années 1990 et également en France, qui salue la qualité et l'intrigue du film et les performances de Michael Douglas et Sharon Stone[27].
-Box-office
-La réaction de la critique n'a pas empêché Basic Instinct de connaître un véritable succès commercial aux États-Unis, mais aussi à l'étranger, puisque le film est parvenu à se classer dans les dix premières places du box-office américain pendant trois mois (quatorze semaines), avec 107 856 619 dollars[28], pour finir son exploitation avec 117 727 224 dollars[3], dépassant son budget de 49 000 000 dollars.
-En France, sorti en plein festival de Cannes 1992, où il est présenté le jour précédant sa sortie nationale, il parvient à rencontrer également un succès public. Il totalise plus de quatre millions d'entrées, devenant ainsi le film ayant réalisé le plus d'entrées en 1992.
-À l'international, le film récolte 235 200 000 dollars de recettes et un total de 352 927 224 dollars dans le monde (comprenant les recettes américaines et internationales)[3].
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joe Eszterhas écrit le scénario, d'abord intitulé Love Hurts, en treize jours dans les années 1980. Très prisé par les studios, le script devient si populaire qu'il provoque une guerre des enchères, avant d'être finalement acheté par Carolco Pictures pour trois millions de dollars, somme la plus élevée jamais payée pour un scénario à l'époque.
 </t>
         </is>
       </c>
@@ -760,16 +766,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Entre 1992 et 2013, Basic Instinct est sélectionné 35 fois dans diverses catégories et a remporté 5 récompenses[29],[30].
-Le film est nommé pour deux Oscars et deux Golden Globes (Le compositeur Jerry Goldsmith (Oscar et Golden Globe) pour sa partition originale, Frank Urioste (Oscar) pour le montage et Sharon Stone pour le Golden Globe de la meilleure actrice).
-Le film a aussi été nommé pour trois Razzie Awards, en 1993 : Michael Douglas (plus mauvais acteur), Jeanne Tripplehorn (plus mauvais second rôle féminin) et Sharon Stone (plus mauvaise révélation d'acteur).
-Récompenses
-Nominations</t>
+          <t>Distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rôle de Nick Curran avait été proposé à une longue liste d'acteurs tels que Harrison Ford, Tom Cruise, Brad Pitt, Kevin Costner, Richard Gere, Denzel Washington, Wesley Snipes, Ray Liotta, Mel Gibson, Sean Penn, Tom Hanks, Sylvester Stallone, Jack Nicholson, Bruce Willis, Don Johnson, Al Pacino, Patrick Swayze, Christopher Walken, Nicolas Cage, Dennis Quaid, Jeff Bridges, John Travolta, Chuck Norris, Charlie Sheen, Richard Dean Anderson, Michael J. Fox, John Heard ou encore Martin Sheen. Paul Verhoeven voulait à un moment donné Peter Weller, avec qui il avait travaillé sur Robocop avant que Michael Douglas ne soit officiellement choisi[réf. nécessaire].
+Le rôle de Catherine Tramell avait été proposé à Kim Basinger, Michelle Pfeiffer, Rosanna Arquette, Melanie Griffith, Bridget Fonda, Joan Allen, Jodie Foster, Helen Hunt, Marisa Tomei, Sarah Jessica Parker, Greta Scacchi, Meryl Streep, Julia Roberts, Meg Ryan, Kelly McGillis, Annette Bening, Isabella Rossellini, Kelly Lynch ou encore Lena Olin[réf. nécessaire]. Geena Davis et Ellen Barkin refusèrent à cause du caractère sulfureux du personnage et également à cause des scènes dénudées[N 1]. Sharon Stone avait déjà tourné pour Paul Verhoeven dans Total Recall, où elle tenait un rôle secondaire à côté de la vedette Arnold Schwarzenegger.
+</t>
         </is>
       </c>
     </row>
@@ -794,23 +804,435 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage du film s'est déroulé du 5 avril au 28 juin 1991, en Californie, notamment à San Francisco et à Carmel-by-the-Sea.
+Passionné de sport automobile, c'est Michael Douglas qui a assuré lui-même la poursuite en voiture[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est composée par Jerry Goldsmith, qui avait précédemment collaboré avec Paul Verhoeven sur Total Recall. Le compositeur s'inspire en partie d'Aquarium, 7e mouvement du Carnaval des Animaux de Camille Saint-Saëns. Le compositeur avoue par la suite que sa collaboration avec le réalisateur sur ce film est l'une des plus exigeantes de sa carrière, notamment pour adapter parfaitement le thème musical à l'ambiance équivoque du film, mais qu'elle s'avère finalement une de ses meilleures expériences. Sa musique lui vaut d'être nommé à l'Oscar de la meilleure musique en 1993.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de son caractère sulfureux, le tournage et, plus tard, le lancement du film sont perturbés par des ligues féministes et LGBT,. 
+Mais, sous la pression de ces ligues, le scénariste Joe Eszterhas avait voulu modifier certains éléments du script d'origine (ex : remplacer Nick Curran par une policière lesbienne). Il se heurte au refus du réalisateur Paul Verhoeven.
+Le film est par ailleurs l'objet d'un article universitaire estimant que Basic Instinct représente à lui tout seul un grand nombre de clichés biphobes : Catherine Tramell (Sharon Stone), femme bisexuelle, est une personne froide et sans émotion, incapable de s'attacher sentimentalement à ses conquêtes amoureuses, insatiable sexuellement dans ses aventures avec les deux sexes ; la bisexualité est plus largement représentée comme un état de « confusion » permanente entre hétérosexualité et homosexualité.
+Par ailleurs, la scène la plus mémorable du film est celle où Catherine Tramell habillée d'une robe blanche courte, interrogée au commissariat de police, décroise et recroise très lentement les jambes. On peut constater à cet instant que l'actrice ne porte pas de culotte. Sharon Stone a affirmé que le réalisateur lui avait demandé d'enlever sa culotte pour éviter une tache claire sur la pellicule. Et que ce n'est qu'à la projection des rushes qu'elle s'est rendu compte qu'on voyait clairement qu'elle ne portait pas de culotte. Ce n'était pas le fait de ne pas porter de culotte qui la choquait mais le fait que le réalisateur ne lui ait pas dit la vérité et qu'il ait trouvé un prétexte. Elle s'était sentie trahie et dira plus tard regretter de ne pas avoir porté plainte, même si cela aboutit finalement en l'une des scènes les plus cultes du film, tournée à son insu. Ce plan fait d'ailleurs partie des 42 secondes censurées et supprimées à la sortie du film aux États-Unis[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Présentation au festival de Cannes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basic Instinct est le film d'ouverture du festival de Cannes 1992, qui marque les 45 ans de l'évènement. La révélation du festival reste sans conteste Sharon Stone. Venue avec le réalisateur et Michael Douglas, c'est à cet instant qu'elle fut catapultée au rang de star du cinéma et de sex symbol international[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sortie en salles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basic Instinct est amputée de certaines scènes pour sa sortie en salles États-Unis dues au référencement cinématographique de la MPAA (le film a dû être soumis à sept reprises à la Motion Picture Association of America, afin de lui éviter le classement NC-17[N 2]). Néanmoins, la version intégrale est visible en Europe, notamment lors de la sortie en salles en France du long-métrage. C'est la version européenne qui est sortie en DVD avec l’appellation version non censurée, sur le territoire américain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basic Instinct a essentiellement obtenu des critiques mitigées dans les pays anglophones, obtenant une moyenne de 34⁄100 sur le site Metacritic et 54 % d'avis favorables sur le site Rotten Tomatoes avec une note moyenne de 5,9⁄10.
+Si Janet Maslin du New York Times fait l'éloge du film et que Peter Travers (en) de Rolling Stone, salue également le film et notamment la performance de Sharon Stone, d'autres critiques cinématographiques de presse rejettent Basic Instinct, comme Roger Ebert, du Chicago Sun-Times, lui donnant deux étoiles sur quatre, qui indique que le film est bien conçu mais s'essouffle dans la dernière demi-heure. D'autres critiques lui attribuent des commentaires négatifs, qualifiant le film de « pornographique, misogyne et homophobe ».
+Ce sont les critiques internationales qui accueillent favorablement le film, notamment en Australie avec le Sunday Times qui qualifie le film d'une des « plus belles productions » des années 1990 et également en France, qui salue la qualité et l'intrigue du film et les performances de Michael Douglas et Sharon Stone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réaction de la critique n'a pas empêché Basic Instinct de connaître un véritable succès commercial aux États-Unis, mais aussi à l'étranger, puisque le film est parvenu à se classer dans les dix premières places du box-office américain pendant trois mois (quatorze semaines), avec 107 856 619 dollars, pour finir son exploitation avec 117 727 224 dollars, dépassant son budget de 49 000 000 dollars.
+En France, sorti en plein festival de Cannes 1992, où il est présenté le jour précédant sa sortie nationale, il parvient à rencontrer également un succès public. Il totalise plus de quatre millions d'entrées, devenant ainsi le film ayant réalisé le plus d'entrées en 1992.
+À l'international, le film récolte 235 200 000 dollars de recettes et un total de 352 927 224 dollars dans le monde (comprenant les recettes américaines et internationales).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1992 et 2013, Basic Instinct est sélectionné 35 fois dans diverses catégories et a remporté 5 récompenses,.
+Le film est nommé pour deux Oscars et deux Golden Globes (Le compositeur Jerry Goldsmith (Oscar et Golden Globe) pour sa partition originale, Frank Urioste (Oscar) pour le montage et Sharon Stone pour le Golden Globe de la meilleure actrice).
+Le film a aussi été nommé pour trois Razzie Awards, en 1993 : Michael Douglas (plus mauvais acteur), Jeanne Tripplehorn (plus mauvais second rôle féminin) et Sharon Stone (plus mauvaise révélation d'acteur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clin d’œil
-La robe portée par Sharon Stone dans la séquence de l'interrogatoire n'est pas sans rappeler celle de Kim Novak dans Sueurs froides, une référence à Alfred Hitchcock. Les hommages à Vertigo (à commencer par la superbe musique de Jerry Goldsmith tout juste dérivée de celle de Bernard Herrmann) sont rémanents tout au long du film[31].
-Analyse
-L'un des intérêts du scénario est sa fin ouverte, puisque le spectateur, a priori, ne peut savoir qui est le véritable tueur. Deux versions semblent se superposer sans qu'aucune puisse être privilégiée : Beth est le tueur et Catherine est prise, à la fin, d'une idée mimétique, ou Catherine, au contraire, a induit tous ces crimes, les faisant commettre ou les commettant elle-même, et se convertit finalement au véritable amour. Quelques détails, cependant, semblent faire de Catherine le véritable tueur, si l'on analyse de manière plus poussée certaines séquences. D'une part, il y a la mention des cigarettes dans le tiroir du haut de la cuisine de Beth, celui justement où l'on retrouvera les coupures de presse qui l'incriminent, et qui semblent donc avoir été placées là après. D'autre part, le meurtre du policier Gus dans l'ascenseur est lu par le héros sur le manuscrit de Catherine avant de prendre place dans la vie réelle, ce qui laisse supposer — à moins que les deux femmes ne soient complices, ce qui est une option possible mais compliquée — qu'il s'agit, comme d'habitude, de meurtres anticipés par l'écriture, puis réalisés, conformément à la pathologie criminelle supposée depuis le début chez Catherine. Il semble que si le héros se précipite dans l'immeuble pour sauver son ami, c'est qu'il a pris conscience de la scène qu'il a lue un peu plus tôt. Par ailleurs, c'est en fait le pic à glace placé sous le lit de Catherine qui a fait penser à de nombreux spectateurs qu'elle était la coupable. Cependant, la police avait d'emblée relevé que les pics à glace se trouvent dans n'importe quel supermarché et qu'il faudrait alors soupçonner tous les lecteurs de ses livres, et sur cette seule base mettre en garde à vue tous les lecteurs du roman. Or, Beth suivait pas à pas dans la presse les moindres faits et gestes de Catherine, et a très bien pu relever cette idée. Le spectateur peut aussi remarquer qu'elle avait fait l'amour avec le héros vers le milieu du film, selon le même mode que dans le roman : détentrice également d'un pic à glace, mais sans l'utiliser. Ce n'était peut-être qu'un fantasme. Les faits demeurent particulièrement tordus, dans la mesure où c'est Beth et non Catherine qui se trouvait sur les lieux de l'assassinat de Gus.
-Impacts et parodies
-Le tueur Luka Rocco Magnotta, surnommé le « dépeceur de Montréal »[32], s'est inspiré du film : il a utilisé un pic à glace pour son crime, pris à plusieurs reprises sur un forum Internet le pseudo de Katherine Trammell (ou Kirk Tramel lors de sa cavale à Paris) et cité une réplique de Basic Instinct dans une lettre au Sun.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Clin d’œil</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La robe portée par Sharon Stone dans la séquence de l'interrogatoire n'est pas sans rappeler celle de Kim Novak dans Sueurs froides, une référence à Alfred Hitchcock. Les hommages à Vertigo (à commencer par la superbe musique de Jerry Goldsmith tout juste dérivée de celle de Bernard Herrmann) sont rémanents tout au long du film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'un des intérêts du scénario est sa fin ouverte, puisque le spectateur, a priori, ne peut savoir qui est le véritable tueur. Deux versions semblent se superposer sans qu'aucune puisse être privilégiée : Beth est le tueur et Catherine est prise, à la fin, d'une idée mimétique, ou Catherine, au contraire, a induit tous ces crimes, les faisant commettre ou les commettant elle-même, et se convertit finalement au véritable amour. Quelques détails, cependant, semblent faire de Catherine le véritable tueur, si l'on analyse de manière plus poussée certaines séquences. D'une part, il y a la mention des cigarettes dans le tiroir du haut de la cuisine de Beth, celui justement où l'on retrouvera les coupures de presse qui l'incriminent, et qui semblent donc avoir été placées là après. D'autre part, le meurtre du policier Gus dans l'ascenseur est lu par le héros sur le manuscrit de Catherine avant de prendre place dans la vie réelle, ce qui laisse supposer — à moins que les deux femmes ne soient complices, ce qui est une option possible mais compliquée — qu'il s'agit, comme d'habitude, de meurtres anticipés par l'écriture, puis réalisés, conformément à la pathologie criminelle supposée depuis le début chez Catherine. Il semble que si le héros se précipite dans l'immeuble pour sauver son ami, c'est qu'il a pris conscience de la scène qu'il a lue un peu plus tôt. Par ailleurs, c'est en fait le pic à glace placé sous le lit de Catherine qui a fait penser à de nombreux spectateurs qu'elle était la coupable. Cependant, la police avait d'emblée relevé que les pics à glace se trouvent dans n'importe quel supermarché et qu'il faudrait alors soupçonner tous les lecteurs de ses livres, et sur cette seule base mettre en garde à vue tous les lecteurs du roman. Or, Beth suivait pas à pas dans la presse les moindres faits et gestes de Catherine, et a très bien pu relever cette idée. Le spectateur peut aussi remarquer qu'elle avait fait l'amour avec le héros vers le milieu du film, selon le même mode que dans le roman : détentrice également d'un pic à glace, mais sans l'utiliser. Ce n'était peut-être qu'un fantasme. Les faits demeurent particulièrement tordus, dans la mesure où c'est Beth et non Catherine qui se trouvait sur les lieux de l'assassinat de Gus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Impacts et parodies</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tueur Luka Rocco Magnotta, surnommé le « dépeceur de Montréal », s'est inspiré du film : il a utilisé un pic à glace pour son crime, pris à plusieurs reprises sur un forum Internet le pseudo de Katherine Trammell (ou Kirk Tramel lors de sa cavale à Paris) et cité une réplique de Basic Instinct dans une lettre au Sun.
 La fameuse scène au commissariat où Catherine Tramell (Sharon Stone), vêtue d'une robe blanche sans sous-vêtement, décroise puis croise les jambes, laissant apparaître très brièvement son entre-jambes, a été parodiée en 1994 dans La Cité de la peur et en 2015 dans l'émission américaine The Late Late Show with James Corden, avec notamment James Corden et Michael Douglas. La scène est également parodiée dans Hot Shots! 2 lorsque Michelle demande du feu à Topper Harley.
 La fédération de catch World Wrestling Entertainment rend hommage à la scène dans une vidéo promotionnelle pour son show WrestleMania 21 en 2005. C'est Stacy Keibler qui incarne le rôle de Sharon Stone tandis que Chris Jericho, Chris Benoit et Christian jouent les inspecteurs.
 Dans Deadpool 2, Wade Winston Wilson, alias Deadpool (Ryan Reynolds), décroise puis croise les jambes, comme dans la scène de l'interrogatoire de Catherine Tramell, laissant ainsi apparaître son entrejambe nu alors qu'il est dans son canapé en train de discuter avec Cable (Josh Brolin). Son ami La Fouine (T. J. Miller) y fait même référence en disant que c'est « un basique de l'instinct» ( basic instinct en anglais).
 Un film pornographique parodique américain, Official Basic Instinct Parody, a par ailleurs été réalisé en 2011.
-Suite
-Une suite, Basic Instinct 2, sort en 2006. Réalisé par Michael Caton-Jones, le film met en scène Sharon Stone et David Morrissey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basic_Instinct</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une suite, Basic Instinct 2, sort en 2006. Réalisé par Michael Caton-Jones, le film met en scène Sharon Stone et David Morrissey.
 </t>
         </is>
       </c>
